--- a/project/data/puertos.xlsx
+++ b/project/data/puertos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\OneDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jd.garciac1\Documents\GitHub\IMEC-2001-JuanGarcia\project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFEEF7B-3CE7-4E63-A1FB-AD93240450C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED64B3B3-B3D0-4FA6-86F2-24FC3EE5C97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{62EE004C-C1E7-4499-A172-F979C68E046E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{62EE004C-C1E7-4499-A172-F979C68E046E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -102,7 +100,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -113,12 +111,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -148,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -157,7 +161,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,7 +186,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -474,9 +484,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B08AC2-84DF-4D80-ABC8-E9676E39C994}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -576,32 +588,32 @@
         <v>4.7166666666666668</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="6">
         <v>11.12</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="6">
         <v>3360</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="6">
         <v>2671</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="6">
         <v>825</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="6">
         <v>6.2</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="7">
         <v>27.966666666666665</v>
       </c>
     </row>

--- a/project/data/puertos.xlsx
+++ b/project/data/puertos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jd.garciac1\Documents\GitHub\IMEC-2001-JuanGarcia\project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juand\OneDrive\Documentos\GitHub\IMEC-2001-JuanGarcia\project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED64B3B3-B3D0-4FA6-86F2-24FC3EE5C97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D62C3C-F6B1-4594-A2EA-C79633CDC4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{62EE004C-C1E7-4499-A172-F979C68E046E}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{62EE004C-C1E7-4499-A172-F979C68E046E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B08AC2-84DF-4D80-ABC8-E9676E39C994}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,32 +530,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <v>5.91</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <v>3022</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="6">
         <v>2612</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="6">
         <v>410</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="6">
         <v>6.9</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="7">
         <v>14.733333333333333</v>
       </c>
     </row>
